--- a/materials/Test Questions 1.xlsx
+++ b/materials/Test Questions 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14dd4ef2642f5a57/Documents/GitHub/statistics/materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimac\OneDrive\Documents\GitHub\statistics\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41916ADB-91CC-479E-8BAA-D585DFBFAEA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{41916ADB-91CC-479E-8BAA-D585DFBFAEA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{60B838CE-3D85-4B94-A94C-CD52E53F9F5F}"/>
   <bookViews>
-    <workbookView xWindow="1692" yWindow="2796" windowWidth="19572" windowHeight="8364" xr2:uid="{8972304A-B247-47F0-A915-3E17EE8270E0}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="20976" windowHeight="10752" xr2:uid="{8972304A-B247-47F0-A915-3E17EE8270E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>MC</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ES</t>
   </si>
   <si>
-    <t>"1,2,3"</t>
-  </si>
-  <si>
     <t>Multiple Choice 001</t>
   </si>
   <si>
@@ -103,6 +100,210 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Title/ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Question Wording</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Correct Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> General Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Correct Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Incorrect Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feedback 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Difficulty Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meta 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meta 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meta 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meta 4</t>
+  </si>
+  <si>
+    <t>Title/ID</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Question Wording</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
+  </si>
+  <si>
+    <t>Choice 1</t>
+  </si>
+  <si>
+    <t>Choice 2</t>
+  </si>
+  <si>
+    <t>Choice 3</t>
+  </si>
+  <si>
+    <t>Choice 4</t>
+  </si>
+  <si>
+    <t>Choice 5</t>
+  </si>
+  <si>
+    <t>Choice 6</t>
+  </si>
+  <si>
+    <t>Choice 7</t>
+  </si>
+  <si>
+    <t>Choice 8</t>
+  </si>
+  <si>
+    <t>Choice 9</t>
+  </si>
+  <si>
+    <t>Choice 10</t>
+  </si>
+  <si>
+    <t>General Feedback</t>
+  </si>
+  <si>
+    <t>Correct Feedback</t>
+  </si>
+  <si>
+    <t>Incorrect Feedback</t>
+  </si>
+  <si>
+    <t>Feedback 1</t>
+  </si>
+  <si>
+    <t>Feedback 2</t>
+  </si>
+  <si>
+    <t>Feedback 3</t>
+  </si>
+  <si>
+    <t>Feedback 4</t>
+  </si>
+  <si>
+    <t>Feedback 5</t>
+  </si>
+  <si>
+    <t>Feedback 6</t>
+  </si>
+  <si>
+    <t>Feedback 7</t>
+  </si>
+  <si>
+    <t>Feedback 8</t>
+  </si>
+  <si>
+    <t>Feedback 9</t>
+  </si>
+  <si>
+    <t>Feedback 10</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Difficulty Level</t>
+  </si>
+  <si>
+    <t>Meta 1</t>
+  </si>
+  <si>
+    <t>Meta 2</t>
+  </si>
+  <si>
+    <t>Meta 3</t>
+  </si>
+  <si>
+    <t>Meta 4</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
@@ -454,58 +655,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3722C8D9-43F0-4FDB-BC96-2FDBF63DF6D8}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -517,76 +718,422 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>TRIM(A10)</f>
+        <v>Type</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ref="B11:M11" si="0">TRIM(B10)</f>
+        <v>Title/ID</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Points</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Question Wording</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct Answer</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Choice 1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Choice 2</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>Choice 3</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>Choice 4</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>Choice 5</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>Choice 6</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>Choice 7</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>Choice 8</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" ref="N11" si="1">TRIM(N10)</f>
+        <v>Choice 9</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" ref="O11" si="2">TRIM(O10)</f>
+        <v>Choice 10</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ref="P11" si="3">TRIM(P10)</f>
+        <v>General Feedback</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" ref="Q11" si="4">TRIM(Q10)</f>
+        <v>Correct Feedback</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" ref="R11" si="5">TRIM(R10)</f>
+        <v>Incorrect Feedback</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" ref="S11" si="6">TRIM(S10)</f>
+        <v>Feedback 1</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" ref="T11" si="7">TRIM(T10)</f>
+        <v>Feedback 2</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" ref="U11" si="8">TRIM(U10)</f>
+        <v>Feedback 3</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" ref="V11" si="9">TRIM(V10)</f>
+        <v>Feedback 4</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" ref="W11" si="10">TRIM(W10)</f>
+        <v>Feedback 5</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" ref="X11:Y11" si="11">TRIM(X10)</f>
+        <v>Feedback 6</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="11"/>
+        <v>Feedback 7</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" ref="Z11" si="12">TRIM(Z10)</f>
+        <v>Feedback 8</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" ref="AA11" si="13">TRIM(AA10)</f>
+        <v>Feedback 9</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" ref="AB11" si="14">TRIM(AB10)</f>
+        <v>Feedback 10</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" ref="AC11" si="15">TRIM(AC10)</f>
+        <v>Topic</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" ref="AD11" si="16">TRIM(AD10)</f>
+        <v>Difficulty Level</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" ref="AE11" si="17">TRIM(AE10)</f>
+        <v>Meta 1</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" ref="AF11" si="18">TRIM(AF10)</f>
+        <v>Meta 2</v>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" ref="AG11" si="19">TRIM(AG10)</f>
+        <v>Meta 3</v>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" ref="AH11" si="20">TRIM(AH10)</f>
+        <v>Meta 4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s">
+        <v>78</v>
+      </c>
+      <c r="X13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
